--- a/risk_profile_master.xlsx
+++ b/risk_profile_master.xlsx
@@ -274,7 +274,7 @@
     <t>NA; never participated in financial arrangements</t>
   </si>
   <si>
-    <t>NA; already in a financial agreement(s)</t>
+    <t>NA; already in a financial arrangement(s)</t>
   </si>
   <si>
     <t>NA; we don’t participate in NPRA Sharing</t>
